--- a/Data/Processed/Angiosperms/missing_powo_ipni/Combretaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Combretaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Brit. Mus. (Nat. Hist.), Bot. 3(1): 29. 1963 </t>
+          <t>Bull. Brit. Mus. (Nat. Hist.), Bot. 3(1): 29. 1963</t>
         </is>
       </c>
       <c r="J129" t="b">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 203. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 203. 1908</t>
         </is>
       </c>
       <c r="J130" t="b">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 204. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 204. 1908</t>
         </is>
       </c>
       <c r="J131" t="b">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Agric. (Sao Paulo) 625, pl. 13. 1933 </t>
+          <t>Bol. Agric. (Sao Paulo) 625, pl. 13. 1933</t>
         </is>
       </c>
       <c r="J132" t="b">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 203. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 203. 1908</t>
         </is>
       </c>
       <c r="J133" t="b">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 54(Mém. 3c): 203. 1908 </t>
+          <t>Bull. Soc. Bot. France 54(Mém. 3c): 203. 1908</t>
         </is>
       </c>
       <c r="J134" t="b">
